--- a/Magnetostriccion/Magnetostriccion.xlsx
+++ b/Magnetostriccion/Magnetostriccion.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clauw\Documents\Programming\Laboratorio-Intermedio---Pr-cticas20242\Magnetostriccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570C089B-EB55-4ED7-9F5D-002B6774A7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9FB731-3110-4B67-B8A6-AD695592C279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AADAC4B9-8EC2-4AE2-AEA2-D3E5F1876B3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{AADAC4B9-8EC2-4AE2-AEA2-D3E5F1876B3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fe" sheetId="1" r:id="rId1"/>
-    <sheet name="Cu" sheetId="2" r:id="rId2"/>
+    <sheet name="Campo magnetico" sheetId="2" r:id="rId1"/>
+    <sheet name="Fe" sheetId="1" r:id="rId2"/>
     <sheet name="Ni" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>N</t>
   </si>
@@ -49,137 +49,32 @@
     <t>B</t>
   </si>
   <si>
-    <t>Voltaje</t>
+    <t>I1</t>
   </si>
   <si>
-    <t>20V</t>
+    <t>I2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>I offset</t>
-  </si>
-  <si>
-    <t>0,25</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>0,31</t>
-  </si>
-  <si>
-    <t>0,42</t>
-  </si>
-  <si>
-    <t>0,75</t>
-  </si>
-  <si>
-    <t>0,49</t>
-  </si>
-  <si>
-    <t>0,54</t>
-  </si>
-  <si>
-    <t>1,25</t>
-  </si>
-  <si>
-    <t>0,60</t>
-  </si>
-  <si>
-    <t>1,5</t>
-  </si>
-  <si>
-    <t>1,75</t>
-  </si>
-  <si>
-    <t>0,87</t>
-  </si>
-  <si>
-    <t>1,03</t>
-  </si>
-  <si>
-    <t>2,25</t>
-  </si>
-  <si>
-    <t>1,15</t>
-  </si>
-  <si>
-    <t>menos</t>
-  </si>
-  <si>
-    <t>1,80</t>
-  </si>
-  <si>
-    <t>1,63</t>
-  </si>
-  <si>
-    <t>1,54</t>
-  </si>
-  <si>
-    <t>1,45</t>
-  </si>
-  <si>
-    <t>1,35</t>
-  </si>
-  <si>
-    <t>1,27</t>
-  </si>
-  <si>
-    <t>1,09</t>
-  </si>
-  <si>
-    <t>0,47</t>
-  </si>
-  <si>
-    <t>0,32</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>0,52</t>
-  </si>
-  <si>
-    <t>0,55</t>
-  </si>
-  <si>
-    <t>0,71</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>0,94</t>
-  </si>
-  <si>
-    <t>1,94</t>
-  </si>
-  <si>
-    <t>0,28</t>
-  </si>
-  <si>
-    <t>0,89</t>
-  </si>
-  <si>
-    <t>1,95</t>
-  </si>
-  <si>
-    <t>DN(nm)</t>
-  </si>
-  <si>
-    <t>DN/l0</t>
+    <t>I3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,7 +102,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,6 +135,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Calibracion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -280,7 +200,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fe!$J$1</c:f>
+              <c:f>'Campo magnetico'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -339,6 +259,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8663385826771655E-2"/>
+                  <c:y val="-1.2964421114027413E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -371,42 +297,234 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Fe!$I$2:$I$5</c:f>
+              <c:f>'Campo magnetico'!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.45</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1100000000000001</c:v>
+                <c:pt idx="21">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fe!$J$2:$J$5</c:f>
+              <c:f>'Campo magnetico'!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10.199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.2</c:v>
+                <c:pt idx="7">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,7 +532,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F4B-4AD2-B233-747ABFA90541}"/>
+              <c16:uniqueId val="{00000000-3B78-405F-A48D-7546AA2948A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -426,11 +544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1326675503"/>
-        <c:axId val="1326678863"/>
+        <c:axId val="1935289471"/>
+        <c:axId val="1935285151"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1326675503"/>
+        <c:axId val="1935289471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,12 +605,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326678863"/>
+        <c:crossAx val="1935285151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1326678863"/>
+        <c:axId val="1935285151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1326675503"/>
+        <c:crossAx val="1935289471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1165,23 +1283,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC00621A-B3D0-19F5-9EC2-DE344F3B9C85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D729EFB3-2284-7FB4-0008-83D8A8064467}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,374 +1636,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0F0261-41F9-4810-BC87-037BEE698453}">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65C9EB7-005A-48B3-9518-FF3EA6A87A6A}">
+  <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0.09</v>
+      </c>
+      <c r="C2">
+        <v>3.6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>29.02</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0.35</v>
+      </c>
+      <c r="C7">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0.45</v>
+      </c>
+      <c r="C9">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C11">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="C12">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>0.65</v>
+      </c>
+      <c r="C13">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+      <c r="C14">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.75</v>
+      </c>
+      <c r="C15">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>0.85</v>
+      </c>
+      <c r="C17">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>0.9</v>
+      </c>
+      <c r="C18">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.95</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>0.09</v>
-      </c>
-      <c r="H2">
-        <v>-0.5</v>
-      </c>
-      <c r="I2">
-        <v>0.45</v>
-      </c>
-      <c r="J2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K2">
-        <f>(H2*(632/2))</f>
-        <v>-158</v>
-      </c>
-      <c r="L2">
-        <f>(K2/0.945)</f>
-        <v>-167.19576719576722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>0.71</v>
-      </c>
-      <c r="J3">
-        <v>16.2</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K5" si="0">(H3*(632/2))</f>
-        <v>-316</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L5" si="1">(K3/0.945)</f>
-        <v>-334.39153439153444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
+      <c r="C20">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J4">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>158</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>167.19576719576722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>-0.5</v>
-      </c>
-      <c r="I5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="J5">
-        <v>24.2</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>-158</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>-167.19576719576722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
+      <c r="C22">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C23">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1.2</v>
+      </c>
+      <c r="C24">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1.25</v>
+      </c>
+      <c r="C25">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1.3</v>
+      </c>
+      <c r="C26">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1.35</v>
+      </c>
+      <c r="C27">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1.4</v>
+      </c>
+      <c r="C28">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1.45</v>
+      </c>
+      <c r="C29">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1.5</v>
+      </c>
+      <c r="C30">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1.55</v>
+      </c>
+      <c r="C31">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1.6</v>
+      </c>
+      <c r="C32">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1.65</v>
+      </c>
+      <c r="C33">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1.7</v>
+      </c>
+      <c r="C34">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1.75</v>
+      </c>
+      <c r="C35">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1.8</v>
+      </c>
+      <c r="C36">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1.82</v>
+      </c>
+      <c r="C37">
+        <v>51.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65C9EB7-005A-48B3-9518-FF3EA6A87A6A}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0F0261-41F9-4810-BC87-037BEE698453}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3">
+        <v>0.49</v>
+      </c>
+      <c r="C3">
+        <v>0.42</v>
+      </c>
+      <c r="D3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1.75</v>
+      </c>
+      <c r="B5">
+        <v>0.87</v>
+      </c>
+      <c r="C5">
+        <v>0.71</v>
+      </c>
+      <c r="D5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1.03</v>
+      </c>
+      <c r="C6">
+        <v>0.94</v>
+      </c>
+      <c r="D6">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.25</v>
+      </c>
+      <c r="B7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C7">
+        <v>1.94</v>
+      </c>
+      <c r="D7">
+        <v>1.86</v>
       </c>
     </row>
   </sheetData>
@@ -1895,26 +2069,325 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E473B55-6C6F-4FE1-8305-5E2FE604F03A}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.25</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2">
+        <v>1.2</v>
+      </c>
+      <c r="E2">
+        <v>0.25</v>
+      </c>
+      <c r="F2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.85</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.75</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5">
+        <v>0.45</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.53</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1.25</v>
+      </c>
+      <c r="B6">
+        <v>0.38</v>
+      </c>
+      <c r="C6">
+        <v>1.25</v>
+      </c>
+      <c r="D6">
+        <v>0.46</v>
+      </c>
+      <c r="E6">
+        <v>1.25</v>
+      </c>
+      <c r="F6">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7">
+        <v>0.33</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <v>0.42</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.75</v>
+      </c>
+      <c r="B8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C8">
+        <v>1.75</v>
+      </c>
+      <c r="D8">
+        <v>0.37</v>
+      </c>
+      <c r="E8">
+        <v>1.75</v>
+      </c>
+      <c r="F8">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.25</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>2.25</v>
+      </c>
+      <c r="D9">
+        <v>0.34</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
+      <c r="F9">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.5</v>
+      </c>
+      <c r="B10">
+        <v>0.22</v>
+      </c>
+      <c r="C10">
+        <v>2.5</v>
+      </c>
+      <c r="D10">
+        <v>0.31</v>
+      </c>
+      <c r="E10">
+        <v>2.25</v>
+      </c>
+      <c r="F10">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.75</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>2.75</v>
+      </c>
+      <c r="D11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E11">
+        <v>2.5</v>
+      </c>
+      <c r="F11">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0.09</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0.26</v>
+      </c>
+      <c r="E12">
+        <v>2.75</v>
+      </c>
+      <c r="F12">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>3.25</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>3.5</v>
+      </c>
+      <c r="D14">
+        <v>0.17</v>
+      </c>
+      <c r="E14">
+        <v>3.25</v>
+      </c>
+      <c r="F14">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>3.75</v>
+      </c>
+      <c r="D15">
+        <v>0.08</v>
+      </c>
+      <c r="E15">
+        <v>3.5</v>
+      </c>
+      <c r="F15">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>3.75</v>
+      </c>
+      <c r="F16">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>4.25</v>
+      </c>
+      <c r="F18">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F18">
+    <sortCondition descending="1" ref="F2:F18"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Magnetostriccion/Magnetostriccion.xlsx
+++ b/Magnetostriccion/Magnetostriccion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clauw\Documents\Programming\Laboratorio-Intermedio---Pr-cticas20242\Magnetostriccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9FB731-3110-4B67-B8A6-AD695592C279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94E8B33-0A6C-4C50-A8AF-A7F4C91244D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{AADAC4B9-8EC2-4AE2-AEA2-D3E5F1876B3D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AADAC4B9-8EC2-4AE2-AEA2-D3E5F1876B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Campo magnetico" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>N</t>
   </si>
@@ -100,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1637,314 +1638,619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65C9EB7-005A-48B3-9518-FF3EA6A87A6A}">
-  <dimension ref="B1:F37"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0.09</v>
       </c>
       <c r="C2">
         <v>3.6</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>29.02</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="2">
+        <f>(5*B2)/1.82</f>
+        <v>0.24725274725274721</v>
+      </c>
+      <c r="E2" s="2">
+        <f>(77.1*C2)/51.5</f>
+        <v>5.389514563106796</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0.15</v>
       </c>
       <c r="C3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <f>(5*B3)/1.82</f>
+        <v>0.41208791208791207</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(77.1*C3)/51.5</f>
+        <v>5.8386407766990294</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0.2</v>
       </c>
       <c r="C4">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <f>(5*B4)/1.82</f>
+        <v>0.54945054945054939</v>
+      </c>
+      <c r="E4" s="2">
+        <f>(77.1*C4)/51.5</f>
+        <v>10.030485436893203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0.25</v>
       </c>
       <c r="C5">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <f>(5*B5)/1.82</f>
+        <v>0.68681318681318682</v>
+      </c>
+      <c r="E5" s="2">
+        <f>(77.1*C5)/51.5</f>
+        <v>9.5813592233009715</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.3</v>
       </c>
       <c r="C6">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <f t="shared" ref="D3:D37" si="0">(5*B6)/1.82</f>
+        <v>0.82417582417582413</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(77.1*C6)/51.5</f>
+        <v>11.826990291262137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.35</v>
       </c>
       <c r="C7">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="E7" s="2">
+        <f>(77.1*C7)/51.5</f>
+        <v>13.773203883495144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0.4</v>
       </c>
       <c r="C8">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0989010989010988</v>
+      </c>
+      <c r="E8" s="2">
+        <f>(77.1*C8)/51.5</f>
+        <v>15.270291262135919</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0.45</v>
       </c>
       <c r="C9">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2362637362637363</v>
+      </c>
+      <c r="E9" s="2">
+        <f>(77.1*C9)/51.5</f>
+        <v>18.563883495145632</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3736263736263736</v>
+      </c>
+      <c r="E10" s="2">
+        <f>(77.1*C10)/51.5</f>
+        <v>20.510097087378636</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0.55000000000000004</v>
       </c>
       <c r="C11">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5109890109890109</v>
+      </c>
+      <c r="E11" s="2">
+        <f>(77.1*C11)/51.5</f>
+        <v>21.408349514563106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0.6</v>
       </c>
       <c r="C12">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6483516483516483</v>
+      </c>
+      <c r="E12" s="2">
+        <f>(77.1*C12)/51.5</f>
+        <v>25.00135922330097</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0.65</v>
       </c>
       <c r="C13">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="E13" s="2">
+        <f>(77.1*C13)/51.5</f>
+        <v>25.899611650485436</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>0.7</v>
       </c>
       <c r="C14">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9230769230769229</v>
+      </c>
+      <c r="E14" s="2">
+        <f>(77.1*C14)/51.5</f>
+        <v>28.594368932038833</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>0.75</v>
       </c>
       <c r="C15">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0604395604395602</v>
+      </c>
+      <c r="E15" s="2">
+        <f>(77.1*C15)/51.5</f>
+        <v>29.642330097087378</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>0.8</v>
       </c>
       <c r="C16">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.1978021978021975</v>
+      </c>
+      <c r="E16" s="2">
+        <f>(77.1*C16)/51.5</f>
+        <v>32.935922330097085</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>0.85</v>
       </c>
       <c r="C17">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3351648351648353</v>
+      </c>
+      <c r="E17" s="2">
+        <f>(77.1*C17)/51.5</f>
+        <v>34.283300970873782</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>0.9</v>
       </c>
       <c r="C18">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4725274725274726</v>
+      </c>
+      <c r="E18" s="2">
+        <f>(77.1*C18)/51.5</f>
+        <v>36.528932038834945</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0.95</v>
       </c>
       <c r="C19">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6098901098901099</v>
+      </c>
+      <c r="E19" s="2">
+        <f>(77.1*C19)/51.5</f>
+        <v>38.92427184466019</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7472527472527473</v>
+      </c>
+      <c r="E20" s="2">
+        <f>(77.1*C20)/51.5</f>
+        <v>40.121941747572812</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1.05</v>
       </c>
       <c r="C21">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="E21" s="2">
+        <f>(77.1*C21)/51.5</f>
+        <v>44.31378640776699</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1.1000000000000001</v>
       </c>
       <c r="C22">
         <v>31.8</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0219780219780219</v>
+      </c>
+      <c r="E22" s="2">
+        <f>(77.1*C22)/51.5</f>
+        <v>47.607378640776695</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>1.1499999999999999</v>
       </c>
       <c r="C23">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1593406593406592</v>
+      </c>
+      <c r="E23" s="2">
+        <f>(77.1*C23)/51.5</f>
+        <v>48.954757281553398</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1.2</v>
       </c>
       <c r="C24">
         <v>33.4</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2967032967032965</v>
+      </c>
+      <c r="E24" s="2">
+        <f>(77.1*C24)/51.5</f>
+        <v>50.002718446601939</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1.25</v>
       </c>
       <c r="C25">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4340659340659339</v>
+      </c>
+      <c r="E25" s="2">
+        <f>(77.1*C25)/51.5</f>
+        <v>56.290485436893206</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1.3</v>
       </c>
       <c r="C26">
         <v>37.9</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285712</v>
+      </c>
+      <c r="E26" s="2">
+        <f>(77.1*C26)/51.5</f>
+        <v>56.739611650485429</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1.35</v>
       </c>
       <c r="C27">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7087912087912085</v>
+      </c>
+      <c r="E27" s="2">
+        <f>(77.1*C27)/51.5</f>
+        <v>57.188737864077666</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1.4</v>
       </c>
       <c r="C28">
         <v>40.4</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8461538461538458</v>
+      </c>
+      <c r="E28" s="2">
+        <f>(77.1*C28)/51.5</f>
+        <v>60.48233009708737</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1.45</v>
       </c>
       <c r="C29">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9835164835164836</v>
+      </c>
+      <c r="E29" s="2">
+        <f>(77.1*C29)/51.5</f>
+        <v>62.428543689320392</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1.5</v>
       </c>
       <c r="C30">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1208791208791204</v>
+      </c>
+      <c r="E30" s="2">
+        <f>(77.1*C30)/51.5</f>
+        <v>64.823883495145623</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1.55</v>
       </c>
       <c r="C31">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2582417582417582</v>
+      </c>
+      <c r="E31" s="2">
+        <f>(77.1*C31)/51.5</f>
+        <v>66.919805825242719</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1.6</v>
       </c>
       <c r="C32">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3956043956043951</v>
+      </c>
+      <c r="E32" s="2">
+        <f>(77.1*C32)/51.5</f>
+        <v>67.668349514563104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1.65</v>
       </c>
       <c r="C33">
         <v>47.8</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5329670329670328</v>
+      </c>
+      <c r="E33" s="2">
+        <f>(77.1*C33)/51.5</f>
+        <v>71.56077669902912</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1.7</v>
       </c>
       <c r="C34">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>4.6703296703296706</v>
+      </c>
+      <c r="E34" s="2">
+        <f>(77.1*C34)/51.5</f>
+        <v>72.90815533980583</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1.75</v>
       </c>
       <c r="C35">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8076923076923075</v>
+      </c>
+      <c r="E35" s="2">
+        <f>(77.1*C35)/51.5</f>
+        <v>74.554951456310675</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1.8</v>
       </c>
       <c r="C36">
         <v>51.4</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9450549450549453</v>
+      </c>
+      <c r="E36" s="2">
+        <f>(77.1*C36)/51.5</f>
+        <v>76.95029126213592</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1.82</v>
       </c>
       <c r="C37">
         <v>51.5</v>
+      </c>
+      <c r="D37">
+        <v>4.99</v>
+      </c>
+      <c r="E37">
+        <f>(77.1*C37)/51.5</f>
+        <v>77.099999999999994</v>
+      </c>
+      <c r="H37">
+        <v>51.25</v>
+      </c>
+      <c r="I37">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>1.5</v>
+      </c>
+      <c r="I38">
+        <f>(I37*H38)/H37</f>
+        <v>2.2565853658536583</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +2265,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2071,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E473B55-6C6F-4FE1-8305-5E2FE604F03A}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
